--- a/code/data_scrap/downloads/pp_price_index/indices_expo.xlsx
+++ b/code/data_scrap/downloads/pp_price_index/indices_expo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="32">
   <si>
     <t>Año</t>
   </si>
@@ -467,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L238"/>
+  <dimension ref="A1:L239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9517,6 +9517,44 @@
         <v>43.1046036515814</v>
       </c>
     </row>
+    <row r="239" spans="1:12">
+      <c r="A239" t="s">
+        <v>31</v>
+      </c>
+      <c r="B239">
+        <v>10</v>
+      </c>
+      <c r="C239">
+        <v>183.3069946299</v>
+      </c>
+      <c r="D239">
+        <v>101.9568744835</v>
+      </c>
+      <c r="E239">
+        <v>173.2687957558</v>
+      </c>
+      <c r="F239">
+        <v>115.220386986</v>
+      </c>
+      <c r="G239">
+        <v>194.1669389352</v>
+      </c>
+      <c r="H239">
+        <v>87.6781471285</v>
+      </c>
+      <c r="I239">
+        <v>160.2276616536</v>
+      </c>
+      <c r="J239">
+        <v>139.2660999432</v>
+      </c>
+      <c r="K239">
+        <v>260.6015994132</v>
+      </c>
+      <c r="L239">
+        <v>56.9842551186</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/code/data_scrap/downloads/pp_price_index/indices_expo.xlsx
+++ b/code/data_scrap/downloads/pp_price_index/indices_expo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="32">
   <si>
     <t>Año</t>
   </si>
@@ -467,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L239"/>
+  <dimension ref="A1:L240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9555,6 +9555,44 @@
         <v>56.9842551186</v>
       </c>
     </row>
+    <row r="240" spans="1:12">
+      <c r="A240" t="s">
+        <v>31</v>
+      </c>
+      <c r="B240">
+        <v>11</v>
+      </c>
+      <c r="C240">
+        <v>186.2986368586</v>
+      </c>
+      <c r="D240">
+        <v>90.7627078565</v>
+      </c>
+      <c r="E240">
+        <v>178.1799999486</v>
+      </c>
+      <c r="F240">
+        <v>67.75470288219999</v>
+      </c>
+      <c r="G240">
+        <v>194.4174852755</v>
+      </c>
+      <c r="H240">
+        <v>90.91634357789999</v>
+      </c>
+      <c r="I240">
+        <v>168.5748510149</v>
+      </c>
+      <c r="J240">
+        <v>129.276454153</v>
+      </c>
+      <c r="K240">
+        <v>234.5698032164</v>
+      </c>
+      <c r="L240">
+        <v>56.2432885297</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
